--- a/xboost/com.xboost.business/src/main/webapp/static/excelTemplate/demands.xlsx
+++ b/xboost/com.xboost.business/src/main/webapp/static/excelTemplate/demands.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19104" windowHeight="7787"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
-  <si>
-    <t>id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>toDepot</t>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>effectiveness</t>
   </si>
   <si>
     <t>571D</t>
@@ -260,10 +269,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -274,18 +283,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="10.5"/>
+      <color rgb="FF687189"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -295,8 +296,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,9 +319,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +351,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,39 +398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,7 +411,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -411,15 +427,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,13 +442,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,49 +556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,79 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,6 +636,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -637,31 +660,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,6 +690,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -696,32 +725,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,156 +738,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,18 +1244,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:F$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="9" style="1"/>
+    <col min="1" max="1" width="11.8888888888889" style="1"/>
+    <col min="2" max="6" width="9" style="1"/>
+    <col min="9" max="9" width="13.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="15.6" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,16 +1276,25 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
+        <v>43019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>591</v>
@@ -1280,16 +1305,25 @@
       <c r="F2" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="G2">
+        <v>123</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>43020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>501</v>
@@ -1300,16 +1334,25 @@
       <c r="F3" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>1</v>
+      <c r="G3">
+        <v>124</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>43021</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>190</v>
@@ -1320,16 +1363,25 @@
       <c r="F4" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>1</v>
+      <c r="G4">
+        <v>125</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>43022</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>187</v>
@@ -1340,16 +1392,25 @@
       <c r="F5" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>1</v>
+      <c r="G5">
+        <v>126</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>43023</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>242</v>
@@ -1360,16 +1421,25 @@
       <c r="F6" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>1</v>
+      <c r="G6">
+        <v>127</v>
+      </c>
+      <c r="H6">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>43024</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>260</v>
@@ -1380,16 +1450,25 @@
       <c r="F7" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>1</v>
+      <c r="G7">
+        <v>128</v>
+      </c>
+      <c r="H7">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>43025</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>565</v>
@@ -1400,16 +1479,25 @@
       <c r="F8" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>1</v>
+      <c r="G8">
+        <v>129</v>
+      </c>
+      <c r="H8">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>43026</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>226</v>
@@ -1420,16 +1508,25 @@
       <c r="F9" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>1</v>
+      <c r="G9">
+        <v>130</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>43027</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>416</v>
@@ -1440,16 +1537,25 @@
       <c r="F10" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>1</v>
+      <c r="G10">
+        <v>131</v>
+      </c>
+      <c r="H10">
+        <v>31</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
+        <v>43028</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>307</v>
@@ -1460,16 +1566,25 @@
       <c r="F11" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>1</v>
+      <c r="G11">
+        <v>132</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>43029</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>187</v>
@@ -1480,16 +1595,25 @@
       <c r="F12" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>1</v>
+      <c r="G12">
+        <v>133</v>
+      </c>
+      <c r="H12">
+        <v>33</v>
+      </c>
+      <c r="I12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>43030</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>234</v>
@@ -1500,16 +1624,25 @@
       <c r="F13" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>1</v>
+      <c r="G13">
+        <v>134</v>
+      </c>
+      <c r="H13">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>43031</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1">
         <v>178</v>
@@ -1520,16 +1653,25 @@
       <c r="F14" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>1</v>
+      <c r="G14">
+        <v>135</v>
+      </c>
+      <c r="H14">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
+        <v>43032</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1">
         <v>232</v>
@@ -1540,16 +1682,25 @@
       <c r="F15" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>1</v>
+      <c r="G15">
+        <v>136</v>
+      </c>
+      <c r="H15">
+        <v>36</v>
+      </c>
+      <c r="I15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
+        <v>43033</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1">
         <v>124</v>
@@ -1560,16 +1711,25 @@
       <c r="F16" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>1</v>
+      <c r="G16">
+        <v>137</v>
+      </c>
+      <c r="H16">
+        <v>37</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
+        <v>43034</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1">
         <v>101</v>
@@ -1580,16 +1740,25 @@
       <c r="F17" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>1</v>
+      <c r="G17">
+        <v>138</v>
+      </c>
+      <c r="H17">
+        <v>38</v>
+      </c>
+      <c r="I17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2">
+        <v>43035</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1">
         <v>270</v>
@@ -1600,16 +1769,25 @@
       <c r="F18" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>1</v>
+      <c r="G18">
+        <v>139</v>
+      </c>
+      <c r="H18">
+        <v>39</v>
+      </c>
+      <c r="I18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
+        <v>43036</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1">
         <v>163</v>
@@ -1620,16 +1798,25 @@
       <c r="F19" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>1</v>
+      <c r="G19">
+        <v>140</v>
+      </c>
+      <c r="H19">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2">
+        <v>43037</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1">
         <v>82</v>
@@ -1640,16 +1827,25 @@
       <c r="F20" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>1</v>
+      <c r="G20">
+        <v>141</v>
+      </c>
+      <c r="H20">
+        <v>41</v>
+      </c>
+      <c r="I20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
+        <v>43038</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1">
         <v>511</v>
@@ -1660,16 +1856,25 @@
       <c r="F21" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>1</v>
+      <c r="G21">
+        <v>142</v>
+      </c>
+      <c r="H21">
+        <v>42</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2">
+        <v>43039</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1">
         <v>170</v>
@@ -1680,16 +1885,25 @@
       <c r="F22" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>1</v>
+      <c r="G22">
+        <v>143</v>
+      </c>
+      <c r="H22">
+        <v>43</v>
+      </c>
+      <c r="I22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2">
+        <v>43040</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1">
         <v>306</v>
@@ -1700,16 +1914,25 @@
       <c r="F23" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>1</v>
+      <c r="G23">
+        <v>144</v>
+      </c>
+      <c r="H23">
+        <v>44</v>
+      </c>
+      <c r="I23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2">
+        <v>43041</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1">
         <v>238</v>
@@ -1720,16 +1943,25 @@
       <c r="F24" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>1</v>
+      <c r="G24">
+        <v>123</v>
+      </c>
+      <c r="H24">
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2">
+        <v>43042</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1">
         <v>270</v>
@@ -1740,16 +1972,25 @@
       <c r="F25" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>1</v>
+      <c r="G25">
+        <v>124</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2">
+        <v>43043</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1">
         <v>268</v>
@@ -1760,16 +2001,25 @@
       <c r="F26" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>1</v>
+      <c r="G26">
+        <v>125</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2">
+        <v>43044</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1">
         <v>166</v>
@@ -1780,16 +2030,25 @@
       <c r="F27" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>1</v>
+      <c r="G27">
+        <v>126</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2">
+        <v>43045</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1">
         <v>163</v>
@@ -1800,16 +2059,25 @@
       <c r="F28" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>1</v>
+      <c r="G28">
+        <v>127</v>
+      </c>
+      <c r="H28">
+        <v>27</v>
+      </c>
+      <c r="I28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2">
+        <v>43046</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1">
         <v>410</v>
@@ -1820,16 +2088,25 @@
       <c r="F29" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>1</v>
+      <c r="G29">
+        <v>128</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2">
+        <v>43047</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1">
         <v>455</v>
@@ -1840,16 +2117,25 @@
       <c r="F30" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>1</v>
+      <c r="G30">
+        <v>129</v>
+      </c>
+      <c r="H30">
+        <v>29</v>
+      </c>
+      <c r="I30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
+        <v>43048</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D31" s="1">
         <v>221</v>
@@ -1860,16 +2146,25 @@
       <c r="F31" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>1</v>
+      <c r="G31">
+        <v>130</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>43049</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1">
         <v>296</v>
@@ -1880,16 +2175,25 @@
       <c r="F32" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>1</v>
+      <c r="G32">
+        <v>131</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+      <c r="I32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2">
+        <v>43050</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1">
         <v>591</v>
@@ -1900,16 +2204,25 @@
       <c r="F33" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>1</v>
+      <c r="G33">
+        <v>132</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2">
+        <v>43051</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D34" s="1">
         <v>454</v>
@@ -1920,16 +2233,25 @@
       <c r="F34" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>1</v>
+      <c r="G34">
+        <v>133</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+      <c r="I34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2">
+        <v>43052</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1">
         <v>225</v>
@@ -1940,16 +2262,25 @@
       <c r="F35" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>1</v>
+      <c r="G35">
+        <v>134</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2">
+        <v>43053</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1">
         <v>366</v>
@@ -1960,16 +2291,25 @@
       <c r="F36" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>1</v>
+      <c r="G36">
+        <v>135</v>
+      </c>
+      <c r="H36">
+        <v>35</v>
+      </c>
+      <c r="I36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2">
+        <v>43054</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1">
         <v>437</v>
@@ -1980,16 +2320,25 @@
       <c r="F37" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1">
-        <v>1</v>
+      <c r="G37">
+        <v>136</v>
+      </c>
+      <c r="H37">
+        <v>36</v>
+      </c>
+      <c r="I37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2">
+        <v>43055</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1">
         <v>360</v>
@@ -2000,16 +2349,25 @@
       <c r="F38" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
-        <v>1</v>
+      <c r="G38">
+        <v>137</v>
+      </c>
+      <c r="H38">
+        <v>37</v>
+      </c>
+      <c r="I38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2">
+        <v>43056</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1">
         <v>731</v>
@@ -2020,16 +2378,25 @@
       <c r="F39" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
-        <v>1</v>
+      <c r="G39">
+        <v>138</v>
+      </c>
+      <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="I39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2">
+        <v>43057</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1">
         <v>534</v>
@@ -2040,16 +2407,25 @@
       <c r="F40" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1">
-        <v>1</v>
+      <c r="G40">
+        <v>139</v>
+      </c>
+      <c r="H40">
+        <v>39</v>
+      </c>
+      <c r="I40">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2">
+        <v>43058</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1">
         <v>288</v>
@@ -2060,16 +2436,25 @@
       <c r="F41" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1">
-        <v>1</v>
+      <c r="G41">
+        <v>140</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2">
+        <v>43059</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D42" s="1">
         <v>475</v>
@@ -2080,16 +2465,25 @@
       <c r="F42" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1">
-        <v>1</v>
+      <c r="G42">
+        <v>141</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+      <c r="I42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2">
+        <v>43060</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D43" s="1">
         <v>354</v>
@@ -2100,16 +2494,25 @@
       <c r="F43" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1">
-        <v>1</v>
+      <c r="G43">
+        <v>142</v>
+      </c>
+      <c r="H43">
+        <v>42</v>
+      </c>
+      <c r="I43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2">
+        <v>43061</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D44" s="1">
         <v>258</v>
@@ -2120,16 +2523,25 @@
       <c r="F44" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1">
-        <v>1</v>
+      <c r="G44">
+        <v>143</v>
+      </c>
+      <c r="H44">
+        <v>43</v>
+      </c>
+      <c r="I44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2">
+        <v>43062</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1">
         <v>295</v>
@@ -2140,16 +2552,25 @@
       <c r="F45" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1">
-        <v>1</v>
+      <c r="G45">
+        <v>144</v>
+      </c>
+      <c r="H45">
+        <v>44</v>
+      </c>
+      <c r="I45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2">
+        <v>43063</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D46" s="1">
         <v>446</v>
@@ -2160,16 +2581,25 @@
       <c r="F46" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1">
-        <v>1</v>
+      <c r="G46">
+        <v>123</v>
+      </c>
+      <c r="H46">
+        <v>23</v>
+      </c>
+      <c r="I46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2">
+        <v>43064</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D47" s="1">
         <v>136</v>
@@ -2180,16 +2610,25 @@
       <c r="F47" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1">
-        <v>1</v>
+      <c r="G47">
+        <v>124</v>
+      </c>
+      <c r="H47">
+        <v>24</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="2">
+        <v>43065</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D48" s="1">
         <v>150</v>
@@ -2200,16 +2639,25 @@
       <c r="F48" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1">
-        <v>1</v>
+      <c r="G48">
+        <v>125</v>
+      </c>
+      <c r="H48">
+        <v>25</v>
+      </c>
+      <c r="I48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2">
+        <v>43066</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1">
         <v>453</v>
@@ -2220,16 +2668,25 @@
       <c r="F49" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1">
-        <v>1</v>
+      <c r="G49">
+        <v>126</v>
+      </c>
+      <c r="H49">
+        <v>26</v>
+      </c>
+      <c r="I49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2">
+        <v>43067</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D50" s="1">
         <v>123</v>
@@ -2240,16 +2697,25 @@
       <c r="F50" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1">
-        <v>1</v>
+      <c r="G50">
+        <v>127</v>
+      </c>
+      <c r="H50">
+        <v>27</v>
+      </c>
+      <c r="I50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="2">
+        <v>43068</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D51" s="1">
         <v>165</v>
@@ -2260,16 +2726,25 @@
       <c r="F51" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1">
-        <v>1</v>
+      <c r="G51">
+        <v>128</v>
+      </c>
+      <c r="H51">
+        <v>28</v>
+      </c>
+      <c r="I51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="2">
+        <v>43069</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D52" s="1">
         <v>444</v>
@@ -2280,16 +2755,25 @@
       <c r="F52" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1">
-        <v>1</v>
+      <c r="G52">
+        <v>129</v>
+      </c>
+      <c r="H52">
+        <v>29</v>
+      </c>
+      <c r="I52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="2">
+        <v>43070</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D53" s="1">
         <v>141</v>
@@ -2300,16 +2784,25 @@
       <c r="F53" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1">
-        <v>1</v>
+      <c r="G53">
+        <v>130</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="2">
+        <v>43071</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D54" s="1">
         <v>566</v>
@@ -2320,16 +2813,25 @@
       <c r="F54" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1">
-        <v>1</v>
+      <c r="G54">
+        <v>131</v>
+      </c>
+      <c r="H54">
+        <v>31</v>
+      </c>
+      <c r="I54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2">
+        <v>43072</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D55" s="1">
         <v>331</v>
@@ -2340,16 +2842,25 @@
       <c r="F55" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1">
-        <v>1</v>
+      <c r="G55">
+        <v>132</v>
+      </c>
+      <c r="H55">
+        <v>32</v>
+      </c>
+      <c r="I55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="2">
+        <v>43073</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D56" s="1">
         <v>444</v>
@@ -2360,16 +2871,25 @@
       <c r="F56" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1">
-        <v>1</v>
+      <c r="G56">
+        <v>133</v>
+      </c>
+      <c r="H56">
+        <v>33</v>
+      </c>
+      <c r="I56">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="2">
+        <v>43074</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D57" s="1">
         <v>148</v>
@@ -2380,16 +2900,25 @@
       <c r="F57" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1">
-        <v>1</v>
+      <c r="G57">
+        <v>134</v>
+      </c>
+      <c r="H57">
+        <v>34</v>
+      </c>
+      <c r="I57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="2">
+        <v>43075</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D58" s="1">
         <v>560</v>
@@ -2400,16 +2929,25 @@
       <c r="F58" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1">
-        <v>1</v>
+      <c r="G58">
+        <v>135</v>
+      </c>
+      <c r="H58">
+        <v>35</v>
+      </c>
+      <c r="I58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="2">
+        <v>43076</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D59" s="1">
         <v>448</v>
@@ -2420,16 +2958,25 @@
       <c r="F59" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1">
-        <v>1</v>
+      <c r="G59">
+        <v>136</v>
+      </c>
+      <c r="H59">
+        <v>36</v>
+      </c>
+      <c r="I59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="2">
+        <v>43077</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D60" s="1">
         <v>530</v>
@@ -2440,16 +2987,25 @@
       <c r="F60" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1">
-        <v>1</v>
+      <c r="G60">
+        <v>137</v>
+      </c>
+      <c r="H60">
+        <v>37</v>
+      </c>
+      <c r="I60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="2">
+        <v>43078</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D61" s="1">
         <v>262</v>
@@ -2460,16 +3016,25 @@
       <c r="F61" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1">
-        <v>1</v>
+      <c r="G61">
+        <v>138</v>
+      </c>
+      <c r="H61">
+        <v>38</v>
+      </c>
+      <c r="I61">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="2">
+        <v>43079</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D62" s="1">
         <v>396</v>
@@ -2480,16 +3045,25 @@
       <c r="F62" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1">
-        <v>1</v>
+      <c r="G62">
+        <v>139</v>
+      </c>
+      <c r="H62">
+        <v>39</v>
+      </c>
+      <c r="I62">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="2">
+        <v>43080</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D63" s="1">
         <v>109</v>
@@ -2500,16 +3074,25 @@
       <c r="F63" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1">
-        <v>1</v>
+      <c r="G63">
+        <v>140</v>
+      </c>
+      <c r="H63">
+        <v>40</v>
+      </c>
+      <c r="I63">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="2">
+        <v>43081</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D64" s="1">
         <v>1321</v>
@@ -2520,16 +3103,25 @@
       <c r="F64" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
-        <v>1</v>
+      <c r="G64">
+        <v>141</v>
+      </c>
+      <c r="H64">
+        <v>41</v>
+      </c>
+      <c r="I64">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="2">
+        <v>43082</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D65" s="1">
         <v>465</v>
@@ -2540,16 +3132,25 @@
       <c r="F65" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1">
-        <v>1</v>
+      <c r="G65">
+        <v>142</v>
+      </c>
+      <c r="H65">
+        <v>42</v>
+      </c>
+      <c r="I65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="2">
+        <v>43083</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D66" s="1">
         <v>363</v>
@@ -2560,16 +3161,25 @@
       <c r="F66" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1">
-        <v>1</v>
+      <c r="G66">
+        <v>143</v>
+      </c>
+      <c r="H66">
+        <v>43</v>
+      </c>
+      <c r="I66">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="2">
+        <v>43084</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D67" s="1">
         <v>515</v>
@@ -2580,16 +3190,25 @@
       <c r="F67" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1">
-        <v>1</v>
+      <c r="G67">
+        <v>144</v>
+      </c>
+      <c r="H67">
+        <v>44</v>
+      </c>
+      <c r="I67">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="2">
+        <v>43085</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D68" s="1">
         <v>329</v>
@@ -2600,16 +3219,25 @@
       <c r="F68" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
-        <v>1</v>
+      <c r="G68">
+        <v>123</v>
+      </c>
+      <c r="H68">
+        <v>23</v>
+      </c>
+      <c r="I68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="2">
+        <v>43086</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D69" s="1">
         <v>580</v>
@@ -2620,16 +3248,25 @@
       <c r="F69" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1">
-        <v>1</v>
+      <c r="G69">
+        <v>124</v>
+      </c>
+      <c r="H69">
+        <v>24</v>
+      </c>
+      <c r="I69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="2">
+        <v>43087</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D70" s="1">
         <v>586</v>
@@ -2640,16 +3277,25 @@
       <c r="F70" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
-        <v>1</v>
+      <c r="G70">
+        <v>125</v>
+      </c>
+      <c r="H70">
+        <v>25</v>
+      </c>
+      <c r="I70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="2">
+        <v>43088</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D71" s="1">
         <v>688</v>
@@ -2660,16 +3306,25 @@
       <c r="F71" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
-        <v>1</v>
+      <c r="G71">
+        <v>126</v>
+      </c>
+      <c r="H71">
+        <v>26</v>
+      </c>
+      <c r="I71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="2">
+        <v>43089</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D72" s="1">
         <v>925</v>
@@ -2680,16 +3335,25 @@
       <c r="F72" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
-        <v>1</v>
+      <c r="G72">
+        <v>127</v>
+      </c>
+      <c r="H72">
+        <v>27</v>
+      </c>
+      <c r="I72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="2">
+        <v>43090</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D73" s="1">
         <v>1223</v>
@@ -2700,16 +3364,25 @@
       <c r="F73" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>1</v>
+      <c r="G73">
+        <v>128</v>
+      </c>
+      <c r="H73">
+        <v>28</v>
+      </c>
+      <c r="I73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="2">
+        <v>43091</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1">
         <v>199</v>
@@ -2720,16 +3393,25 @@
       <c r="F74" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>1</v>
+      <c r="G74">
+        <v>129</v>
+      </c>
+      <c r="H74">
+        <v>29</v>
+      </c>
+      <c r="I74">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="2">
+        <v>43092</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D75" s="1">
         <v>142</v>
@@ -2740,16 +3422,25 @@
       <c r="F75" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>1</v>
+      <c r="G75">
+        <v>130</v>
+      </c>
+      <c r="H75">
+        <v>30</v>
+      </c>
+      <c r="I75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="2">
+        <v>43093</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D76" s="1">
         <v>130</v>
@@ -2760,16 +3451,25 @@
       <c r="F76" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>1</v>
+      <c r="G76">
+        <v>131</v>
+      </c>
+      <c r="H76">
+        <v>31</v>
+      </c>
+      <c r="I76">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="2">
+        <v>43094</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D77" s="1">
         <v>113</v>
@@ -2780,16 +3480,25 @@
       <c r="F77" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>1</v>
+      <c r="G77">
+        <v>132</v>
+      </c>
+      <c r="H77">
+        <v>32</v>
+      </c>
+      <c r="I77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="2">
+        <v>43095</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D78" s="1">
         <v>271</v>
@@ -2800,16 +3509,25 @@
       <c r="F78" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>1</v>
+      <c r="G78">
+        <v>133</v>
+      </c>
+      <c r="H78">
+        <v>33</v>
+      </c>
+      <c r="I78">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="2">
+        <v>43096</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D79" s="1">
         <v>289</v>
@@ -2820,16 +3538,25 @@
       <c r="F79" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>1</v>
+      <c r="G79">
+        <v>134</v>
+      </c>
+      <c r="H79">
+        <v>34</v>
+      </c>
+      <c r="I79">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="2">
+        <v>43097</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D80" s="1">
         <v>407</v>
@@ -2840,16 +3567,25 @@
       <c r="F80" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
-        <v>1</v>
+      <c r="G80">
+        <v>135</v>
+      </c>
+      <c r="H80">
+        <v>35</v>
+      </c>
+      <c r="I80">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="2">
+        <v>43098</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D81" s="1">
         <v>183</v>
@@ -2860,16 +3596,25 @@
       <c r="F81" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>1</v>
+      <c r="G81">
+        <v>136</v>
+      </c>
+      <c r="H81">
+        <v>36</v>
+      </c>
+      <c r="I81">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="2">
+        <v>43099</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D82" s="1">
         <v>272</v>
@@ -2880,16 +3625,25 @@
       <c r="F82" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
-        <v>1</v>
+      <c r="G82">
+        <v>137</v>
+      </c>
+      <c r="H82">
+        <v>37</v>
+      </c>
+      <c r="I82">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="2">
+        <v>43100</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D83" s="1">
         <v>254</v>
@@ -2900,16 +3654,25 @@
       <c r="F83" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1">
-        <v>1</v>
+      <c r="G83">
+        <v>138</v>
+      </c>
+      <c r="H83">
+        <v>38</v>
+      </c>
+      <c r="I83">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="2">
+        <v>43101</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D84" s="1">
         <v>375</v>
@@ -2920,16 +3683,25 @@
       <c r="F84" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1">
-        <v>1</v>
+      <c r="G84">
+        <v>139</v>
+      </c>
+      <c r="H84">
+        <v>39</v>
+      </c>
+      <c r="I84">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="2">
+        <v>43102</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D85" s="1">
         <v>532</v>
@@ -2940,16 +3712,25 @@
       <c r="F85" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1">
-        <v>1</v>
+      <c r="G85">
+        <v>140</v>
+      </c>
+      <c r="H85">
+        <v>40</v>
+      </c>
+      <c r="I85">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="2">
+        <v>43103</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D86" s="1">
         <v>470</v>
@@ -2960,16 +3741,25 @@
       <c r="F86" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1">
-        <v>1</v>
+      <c r="G86">
+        <v>141</v>
+      </c>
+      <c r="H86">
+        <v>41</v>
+      </c>
+      <c r="I86">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="2">
+        <v>43104</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D87" s="1">
         <v>180</v>
@@ -2980,16 +3770,25 @@
       <c r="F87" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1">
-        <v>1</v>
+      <c r="G87">
+        <v>142</v>
+      </c>
+      <c r="H87">
+        <v>42</v>
+      </c>
+      <c r="I87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="2">
+        <v>43105</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D88" s="1">
         <v>292</v>
@@ -3000,16 +3799,25 @@
       <c r="F88" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1">
-        <v>1</v>
+      <c r="G88">
+        <v>143</v>
+      </c>
+      <c r="H88">
+        <v>43</v>
+      </c>
+      <c r="I88">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="2">
+        <v>43106</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D89" s="1">
         <v>368</v>
@@ -3020,16 +3828,25 @@
       <c r="F89" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1">
-        <v>1</v>
+      <c r="G89">
+        <v>144</v>
+      </c>
+      <c r="H89">
+        <v>44</v>
+      </c>
+      <c r="I89">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="2">
+        <v>43107</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D90" s="1">
         <v>428</v>
@@ -3040,16 +3857,25 @@
       <c r="F90" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1">
-        <v>1</v>
+      <c r="G90">
+        <v>123</v>
+      </c>
+      <c r="H90">
+        <v>23</v>
+      </c>
+      <c r="I90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="2">
+        <v>43108</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D91" s="1">
         <v>588</v>
@@ -3060,16 +3886,25 @@
       <c r="F91" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1">
-        <v>1</v>
+      <c r="G91">
+        <v>124</v>
+      </c>
+      <c r="H91">
+        <v>24</v>
+      </c>
+      <c r="I91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="2">
+        <v>43109</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D92" s="1">
         <v>409</v>
@@ -3080,16 +3915,25 @@
       <c r="F92" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1">
-        <v>1</v>
+      <c r="G92">
+        <v>125</v>
+      </c>
+      <c r="H92">
+        <v>25</v>
+      </c>
+      <c r="I92">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="2">
+        <v>43110</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D93" s="1">
         <v>109</v>
@@ -3100,16 +3944,25 @@
       <c r="F93" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1">
-        <v>1</v>
+      <c r="G93">
+        <v>126</v>
+      </c>
+      <c r="H93">
+        <v>26</v>
+      </c>
+      <c r="I93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="2">
+        <v>43111</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D94" s="1">
         <v>195</v>
@@ -3120,16 +3973,25 @@
       <c r="F94" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1">
-        <v>1</v>
+      <c r="G94">
+        <v>127</v>
+      </c>
+      <c r="H94">
+        <v>27</v>
+      </c>
+      <c r="I94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="2">
+        <v>43112</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D95" s="1">
         <v>274</v>
@@ -3140,16 +4002,25 @@
       <c r="F95" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1">
-        <v>1</v>
+      <c r="G95">
+        <v>128</v>
+      </c>
+      <c r="H95">
+        <v>28</v>
+      </c>
+      <c r="I95">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="2">
+        <v>43113</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D96" s="1">
         <v>410</v>
@@ -3160,16 +4031,25 @@
       <c r="F96" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1">
-        <v>1</v>
+      <c r="G96">
+        <v>129</v>
+      </c>
+      <c r="H96">
+        <v>29</v>
+      </c>
+      <c r="I96">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="2">
+        <v>43114</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D97" s="1">
         <v>646</v>
@@ -3180,16 +4060,25 @@
       <c r="F97" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1">
-        <v>1</v>
+      <c r="G97">
+        <v>130</v>
+      </c>
+      <c r="H97">
+        <v>30</v>
+      </c>
+      <c r="I97">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="2">
+        <v>43115</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D98" s="1">
         <v>562</v>
@@ -3200,16 +4089,25 @@
       <c r="F98" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1">
-        <v>1</v>
+      <c r="G98">
+        <v>131</v>
+      </c>
+      <c r="H98">
+        <v>31</v>
+      </c>
+      <c r="I98">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="2">
+        <v>43116</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D99" s="1">
         <v>269</v>
@@ -3220,16 +4118,25 @@
       <c r="F99" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1">
-        <v>1</v>
+      <c r="G99">
+        <v>132</v>
+      </c>
+      <c r="H99">
+        <v>32</v>
+      </c>
+      <c r="I99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="2">
+        <v>43117</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D100" s="1">
         <v>282</v>
@@ -3240,16 +4147,25 @@
       <c r="F100" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1">
-        <v>1</v>
+      <c r="G100">
+        <v>133</v>
+      </c>
+      <c r="H100">
+        <v>33</v>
+      </c>
+      <c r="I100">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="2">
+        <v>43118</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D101" s="1">
         <v>320</v>
@@ -3260,16 +4176,25 @@
       <c r="F101" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1">
-        <v>1</v>
+      <c r="G101">
+        <v>134</v>
+      </c>
+      <c r="H101">
+        <v>34</v>
+      </c>
+      <c r="I101">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="2">
+        <v>43119</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D102" s="1">
         <v>410</v>
@@ -3280,16 +4205,25 @@
       <c r="F102" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1">
-        <v>1</v>
+      <c r="G102">
+        <v>135</v>
+      </c>
+      <c r="H102">
+        <v>35</v>
+      </c>
+      <c r="I102">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="2">
+        <v>43120</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D103" s="1">
         <v>1001</v>
@@ -3300,16 +4234,25 @@
       <c r="F103" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1">
-        <v>1</v>
+      <c r="G103">
+        <v>136</v>
+      </c>
+      <c r="H103">
+        <v>36</v>
+      </c>
+      <c r="I103">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="2">
+        <v>43121</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D104" s="1">
         <v>1081</v>
@@ -3320,16 +4263,25 @@
       <c r="F104" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1">
-        <v>1</v>
+      <c r="G104">
+        <v>137</v>
+      </c>
+      <c r="H104">
+        <v>37</v>
+      </c>
+      <c r="I104">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="2">
+        <v>43122</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D105" s="1">
         <v>428</v>
@@ -3340,16 +4292,25 @@
       <c r="F105" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1">
-        <v>1</v>
+      <c r="G105">
+        <v>138</v>
+      </c>
+      <c r="H105">
+        <v>38</v>
+      </c>
+      <c r="I105">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="2">
+        <v>43123</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D106" s="1">
         <v>678</v>
@@ -3360,16 +4321,25 @@
       <c r="F106" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1">
-        <v>1</v>
+      <c r="G106">
+        <v>139</v>
+      </c>
+      <c r="H106">
+        <v>39</v>
+      </c>
+      <c r="I106">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="2">
+        <v>43124</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D107" s="1">
         <v>603</v>
@@ -3380,16 +4350,25 @@
       <c r="F107" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1">
-        <v>1</v>
+      <c r="G107">
+        <v>140</v>
+      </c>
+      <c r="H107">
+        <v>40</v>
+      </c>
+      <c r="I107">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="2">
+        <v>43125</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D108" s="1">
         <v>777</v>
@@ -3400,16 +4379,25 @@
       <c r="F108" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1">
-        <v>1</v>
+      <c r="G108">
+        <v>141</v>
+      </c>
+      <c r="H108">
+        <v>41</v>
+      </c>
+      <c r="I108">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="2">
+        <v>43126</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D109" s="1">
         <v>1016</v>
@@ -3420,16 +4408,25 @@
       <c r="F109" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1">
-        <v>1</v>
+      <c r="G109">
+        <v>142</v>
+      </c>
+      <c r="H109">
+        <v>42</v>
+      </c>
+      <c r="I109">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="2">
+        <v>43127</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D110" s="1">
         <v>402</v>
@@ -3440,16 +4437,25 @@
       <c r="F110" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1">
-        <v>1</v>
+      <c r="G110">
+        <v>143</v>
+      </c>
+      <c r="H110">
+        <v>43</v>
+      </c>
+      <c r="I110">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="2">
+        <v>43128</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D111" s="1">
         <v>523</v>
@@ -3460,16 +4466,25 @@
       <c r="F111" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1">
-        <v>1</v>
+      <c r="G111">
+        <v>144</v>
+      </c>
+      <c r="H111">
+        <v>44</v>
+      </c>
+      <c r="I111">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="2">
+        <v>43129</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D112" s="1">
         <v>1012</v>
@@ -3480,16 +4495,25 @@
       <c r="F112" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1">
-        <v>1</v>
+      <c r="G112">
+        <v>123</v>
+      </c>
+      <c r="H112">
+        <v>23</v>
+      </c>
+      <c r="I112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="2">
+        <v>43130</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D113" s="1">
         <v>199</v>
@@ -3500,16 +4524,25 @@
       <c r="F113" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1">
-        <v>1</v>
+      <c r="G113">
+        <v>124</v>
+      </c>
+      <c r="H113">
+        <v>24</v>
+      </c>
+      <c r="I113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="2">
+        <v>43131</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D114" s="1">
         <v>463</v>
@@ -3520,16 +4553,25 @@
       <c r="F114" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1">
-        <v>1</v>
+      <c r="G114">
+        <v>125</v>
+      </c>
+      <c r="H114">
+        <v>25</v>
+      </c>
+      <c r="I114">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="2">
+        <v>43132</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D115" s="1">
         <v>399</v>
@@ -3540,16 +4582,25 @@
       <c r="F115" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1">
-        <v>1</v>
+      <c r="G115">
+        <v>126</v>
+      </c>
+      <c r="H115">
+        <v>26</v>
+      </c>
+      <c r="I115">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="2">
+        <v>43133</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D116" s="1">
         <v>310</v>
@@ -3560,16 +4611,25 @@
       <c r="F116" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1">
-        <v>1</v>
+      <c r="G116">
+        <v>127</v>
+      </c>
+      <c r="H116">
+        <v>27</v>
+      </c>
+      <c r="I116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="2">
+        <v>43134</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D117" s="1">
         <v>195</v>
@@ -3580,16 +4640,25 @@
       <c r="F117" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1">
-        <v>1</v>
+      <c r="G117">
+        <v>128</v>
+      </c>
+      <c r="H117">
+        <v>28</v>
+      </c>
+      <c r="I117">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="2">
+        <v>43135</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D118" s="1">
         <v>104</v>
@@ -3600,16 +4669,25 @@
       <c r="F118" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1">
-        <v>1</v>
+      <c r="G118">
+        <v>129</v>
+      </c>
+      <c r="H118">
+        <v>29</v>
+      </c>
+      <c r="I118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>43136</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D119" s="1">
         <v>463</v>
@@ -3620,16 +4698,25 @@
       <c r="F119" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1">
-        <v>1</v>
+      <c r="G119">
+        <v>130</v>
+      </c>
+      <c r="H119">
+        <v>30</v>
+      </c>
+      <c r="I119">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>43137</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D120" s="1">
         <v>498</v>
@@ -3640,16 +4727,25 @@
       <c r="F120" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1">
-        <v>1</v>
+      <c r="G120">
+        <v>131</v>
+      </c>
+      <c r="H120">
+        <v>31</v>
+      </c>
+      <c r="I120">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>43138</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D121" s="1">
         <v>125</v>
@@ -3660,16 +4756,25 @@
       <c r="F121" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1">
-        <v>1</v>
+      <c r="G121">
+        <v>132</v>
+      </c>
+      <c r="H121">
+        <v>32</v>
+      </c>
+      <c r="I121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>43139</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D122" s="1">
         <v>402</v>
@@ -3680,16 +4785,25 @@
       <c r="F122" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1">
-        <v>1</v>
+      <c r="G122">
+        <v>133</v>
+      </c>
+      <c r="H122">
+        <v>33</v>
+      </c>
+      <c r="I122">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>43140</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D123" s="1">
         <v>469</v>
@@ -3700,16 +4814,25 @@
       <c r="F123" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1">
-        <v>1</v>
+      <c r="G123">
+        <v>134</v>
+      </c>
+      <c r="H123">
+        <v>34</v>
+      </c>
+      <c r="I123">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>43141</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D124" s="1">
         <v>273</v>
@@ -3720,16 +4843,25 @@
       <c r="F124" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1">
-        <v>1</v>
+      <c r="G124">
+        <v>135</v>
+      </c>
+      <c r="H124">
+        <v>35</v>
+      </c>
+      <c r="I124">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>43142</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D125" s="1">
         <v>525</v>
@@ -3740,16 +4872,25 @@
       <c r="F125" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1">
-        <v>1</v>
+      <c r="G125">
+        <v>136</v>
+      </c>
+      <c r="H125">
+        <v>36</v>
+      </c>
+      <c r="I125">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>43143</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D126" s="1">
         <v>140</v>
@@ -3760,16 +4901,25 @@
       <c r="F126" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1">
-        <v>1</v>
+      <c r="G126">
+        <v>137</v>
+      </c>
+      <c r="H126">
+        <v>37</v>
+      </c>
+      <c r="I126">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>43144</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D127" s="1">
         <v>237</v>
@@ -3780,16 +4930,25 @@
       <c r="F127" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>1</v>
+      <c r="G127">
+        <v>138</v>
+      </c>
+      <c r="H127">
+        <v>38</v>
+      </c>
+      <c r="I127">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="2">
+        <v>43145</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D128" s="1">
         <v>578</v>
@@ -3800,16 +4959,25 @@
       <c r="F128" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>1</v>
+      <c r="G128">
+        <v>139</v>
+      </c>
+      <c r="H128">
+        <v>39</v>
+      </c>
+      <c r="I128">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="2">
+        <v>43146</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D129" s="1">
         <v>355</v>
@@ -3820,16 +4988,25 @@
       <c r="F129" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>1</v>
+      <c r="G129">
+        <v>140</v>
+      </c>
+      <c r="H129">
+        <v>40</v>
+      </c>
+      <c r="I129">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="2">
+        <v>43147</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D130" s="1">
         <v>591</v>
@@ -3840,16 +5017,25 @@
       <c r="F130" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>1</v>
+      <c r="G130">
+        <v>141</v>
+      </c>
+      <c r="H130">
+        <v>41</v>
+      </c>
+      <c r="I130">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="2">
+        <v>43148</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D131" s="1">
         <v>164</v>
@@ -3860,16 +5046,25 @@
       <c r="F131" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>1</v>
+      <c r="G131">
+        <v>142</v>
+      </c>
+      <c r="H131">
+        <v>42</v>
+      </c>
+      <c r="I131">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="2">
+        <v>43149</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D132" s="1">
         <v>227</v>
@@ -3880,16 +5075,25 @@
       <c r="F132" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>1</v>
+      <c r="G132">
+        <v>143</v>
+      </c>
+      <c r="H132">
+        <v>43</v>
+      </c>
+      <c r="I132">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="2">
+        <v>43150</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D133" s="1">
         <v>245</v>
@@ -3900,16 +5104,25 @@
       <c r="F133" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>1</v>
+      <c r="G133">
+        <v>144</v>
+      </c>
+      <c r="H133">
+        <v>44</v>
+      </c>
+      <c r="I133">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="2">
+        <v>43151</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D134" s="1">
         <v>273</v>
@@ -3920,16 +5133,25 @@
       <c r="F134" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>1</v>
+      <c r="G134">
+        <v>123</v>
+      </c>
+      <c r="H134">
+        <v>23</v>
+      </c>
+      <c r="I134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="2">
+        <v>43152</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D135" s="1">
         <v>182</v>
@@ -3940,16 +5162,25 @@
       <c r="F135" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>1</v>
+      <c r="G135">
+        <v>124</v>
+      </c>
+      <c r="H135">
+        <v>24</v>
+      </c>
+      <c r="I135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="2">
+        <v>43153</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D136" s="1">
         <v>93</v>
@@ -3960,16 +5191,25 @@
       <c r="F136" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1">
-        <v>1</v>
+      <c r="G136">
+        <v>125</v>
+      </c>
+      <c r="H136">
+        <v>25</v>
+      </c>
+      <c r="I136">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="2">
+        <v>43154</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D137" s="1">
         <v>306</v>
@@ -3980,16 +5220,25 @@
       <c r="F137" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1">
-        <v>1</v>
+      <c r="G137">
+        <v>126</v>
+      </c>
+      <c r="H137">
+        <v>26</v>
+      </c>
+      <c r="I137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="2">
+        <v>43155</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D138" s="1">
         <v>153</v>
@@ -4000,16 +5249,25 @@
       <c r="F138" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1">
-        <v>1</v>
+      <c r="G138">
+        <v>127</v>
+      </c>
+      <c r="H138">
+        <v>27</v>
+      </c>
+      <c r="I138">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="2">
+        <v>43156</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D139" s="1">
         <v>160</v>
@@ -4020,16 +5278,25 @@
       <c r="F139" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1">
-        <v>1</v>
+      <c r="G139">
+        <v>128</v>
+      </c>
+      <c r="H139">
+        <v>28</v>
+      </c>
+      <c r="I139">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="2">
+        <v>43157</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D140" s="1">
         <v>263</v>
@@ -4040,16 +5307,25 @@
       <c r="F140" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1">
-        <v>1</v>
+      <c r="G140">
+        <v>129</v>
+      </c>
+      <c r="H140">
+        <v>29</v>
+      </c>
+      <c r="I140">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="2">
+        <v>43158</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D141" s="1">
         <v>393</v>
@@ -4060,16 +5336,25 @@
       <c r="F141" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1">
-        <v>1</v>
+      <c r="G141">
+        <v>130</v>
+      </c>
+      <c r="H141">
+        <v>30</v>
+      </c>
+      <c r="I141">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="2">
+        <v>43159</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D142" s="1">
         <v>100</v>
@@ -4080,16 +5365,25 @@
       <c r="F142" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1">
-        <v>1</v>
+      <c r="G142">
+        <v>131</v>
+      </c>
+      <c r="H142">
+        <v>31</v>
+      </c>
+      <c r="I142">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="2">
+        <v>43160</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D143" s="1">
         <v>240</v>
@@ -4100,16 +5394,25 @@
       <c r="F143" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1">
-        <v>1</v>
+      <c r="G143">
+        <v>132</v>
+      </c>
+      <c r="H143">
+        <v>32</v>
+      </c>
+      <c r="I143">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="2">
+        <v>43161</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D144" s="1">
         <v>301</v>
@@ -4120,16 +5423,25 @@
       <c r="F144" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1">
-        <v>1</v>
+      <c r="G144">
+        <v>133</v>
+      </c>
+      <c r="H144">
+        <v>33</v>
+      </c>
+      <c r="I144">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="2">
+        <v>43162</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D145" s="1">
         <v>138</v>
@@ -4140,16 +5452,25 @@
       <c r="F145" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1">
-        <v>1</v>
+      <c r="G145">
+        <v>134</v>
+      </c>
+      <c r="H145">
+        <v>34</v>
+      </c>
+      <c r="I145">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="2">
+        <v>43163</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D146" s="1">
         <v>68</v>
@@ -4160,16 +5481,25 @@
       <c r="F146" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1">
-        <v>1</v>
+      <c r="G146">
+        <v>135</v>
+      </c>
+      <c r="H146">
+        <v>35</v>
+      </c>
+      <c r="I146">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="2">
+        <v>43164</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D147" s="1">
         <v>285</v>
@@ -4180,16 +5510,25 @@
       <c r="F147" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1">
-        <v>1</v>
+      <c r="G147">
+        <v>136</v>
+      </c>
+      <c r="H147">
+        <v>36</v>
+      </c>
+      <c r="I147">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="2">
+        <v>43165</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D148" s="1">
         <v>461</v>
@@ -4200,16 +5539,25 @@
       <c r="F148" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1">
-        <v>1</v>
+      <c r="G148">
+        <v>137</v>
+      </c>
+      <c r="H148">
+        <v>37</v>
+      </c>
+      <c r="I148">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="2">
+        <v>43166</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D149" s="1">
         <v>696</v>
@@ -4220,16 +5568,25 @@
       <c r="F149" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1">
-        <v>1</v>
+      <c r="G149">
+        <v>138</v>
+      </c>
+      <c r="H149">
+        <v>38</v>
+      </c>
+      <c r="I149">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="2">
+        <v>43167</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D150" s="1">
         <v>273</v>
@@ -4240,16 +5597,25 @@
       <c r="F150" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1">
-        <v>1</v>
+      <c r="G150">
+        <v>139</v>
+      </c>
+      <c r="H150">
+        <v>39</v>
+      </c>
+      <c r="I150">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="2">
+        <v>43168</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D151" s="1">
         <v>319</v>
@@ -4260,16 +5626,25 @@
       <c r="F151" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1">
-        <v>1</v>
+      <c r="G151">
+        <v>140</v>
+      </c>
+      <c r="H151">
+        <v>40</v>
+      </c>
+      <c r="I151">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="2">
+        <v>43169</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D152" s="1">
         <v>301</v>
@@ -4280,16 +5655,25 @@
       <c r="F152" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1">
-        <v>1</v>
+      <c r="G152">
+        <v>141</v>
+      </c>
+      <c r="H152">
+        <v>41</v>
+      </c>
+      <c r="I152">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="2">
+        <v>43170</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D153" s="1">
         <v>261</v>
@@ -4300,16 +5684,25 @@
       <c r="F153" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1">
-        <v>1</v>
+      <c r="G153">
+        <v>142</v>
+      </c>
+      <c r="H153">
+        <v>42</v>
+      </c>
+      <c r="I153">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="2">
+        <v>43171</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D154" s="1">
         <v>553</v>
@@ -4320,16 +5713,25 @@
       <c r="F154" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1">
-        <v>1</v>
+      <c r="G154">
+        <v>143</v>
+      </c>
+      <c r="H154">
+        <v>43</v>
+      </c>
+      <c r="I154">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="2">
+        <v>43172</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D155" s="1">
         <v>385</v>
@@ -4340,16 +5742,25 @@
       <c r="F155" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1">
-        <v>1</v>
+      <c r="G155">
+        <v>144</v>
+      </c>
+      <c r="H155">
+        <v>44</v>
+      </c>
+      <c r="I155">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="2">
+        <v>43173</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D156" s="1">
         <v>189</v>
@@ -4360,16 +5771,25 @@
       <c r="F156" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1">
-        <v>1</v>
+      <c r="G156">
+        <v>123</v>
+      </c>
+      <c r="H156">
+        <v>23</v>
+      </c>
+      <c r="I156">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="2">
+        <v>43174</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D157" s="1">
         <v>238</v>
@@ -4380,16 +5800,25 @@
       <c r="F157" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1">
-        <v>1</v>
+      <c r="G157">
+        <v>124</v>
+      </c>
+      <c r="H157">
+        <v>24</v>
+      </c>
+      <c r="I157">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="2">
+        <v>43175</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D158" s="1">
         <v>133</v>
@@ -4400,16 +5829,25 @@
       <c r="F158" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1">
-        <v>1</v>
+      <c r="G158">
+        <v>125</v>
+      </c>
+      <c r="H158">
+        <v>25</v>
+      </c>
+      <c r="I158">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="2">
+        <v>43176</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D159" s="1">
         <v>113</v>
@@ -4420,16 +5858,25 @@
       <c r="F159" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1">
-        <v>1</v>
+      <c r="G159">
+        <v>126</v>
+      </c>
+      <c r="H159">
+        <v>26</v>
+      </c>
+      <c r="I159">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="2">
+        <v>43177</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D160" s="1">
         <v>63</v>
@@ -4440,16 +5887,25 @@
       <c r="F160" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="1">
-        <v>1</v>
+      <c r="G160">
+        <v>127</v>
+      </c>
+      <c r="H160">
+        <v>27</v>
+      </c>
+      <c r="I160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="2">
+        <v>43178</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D161" s="1">
         <v>294</v>
@@ -4460,16 +5916,25 @@
       <c r="F161" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="1">
-        <v>1</v>
+      <c r="G161">
+        <v>128</v>
+      </c>
+      <c r="H161">
+        <v>28</v>
+      </c>
+      <c r="I161">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="2">
+        <v>43179</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D162" s="1">
         <v>188</v>
@@ -4480,16 +5945,25 @@
       <c r="F162" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1">
-        <v>1</v>
+      <c r="G162">
+        <v>129</v>
+      </c>
+      <c r="H162">
+        <v>29</v>
+      </c>
+      <c r="I162">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="2">
+        <v>43180</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D163" s="1">
         <v>1200</v>
@@ -4500,16 +5974,25 @@
       <c r="F163" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1">
-        <v>1</v>
+      <c r="G163">
+        <v>130</v>
+      </c>
+      <c r="H163">
+        <v>30</v>
+      </c>
+      <c r="I163">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="2">
+        <v>43181</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D164" s="1">
         <v>588</v>
@@ -4520,16 +6003,25 @@
       <c r="F164" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1">
-        <v>1</v>
+      <c r="G164">
+        <v>131</v>
+      </c>
+      <c r="H164">
+        <v>31</v>
+      </c>
+      <c r="I164">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="2">
+        <v>43182</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D165" s="1">
         <v>438</v>
@@ -4540,16 +6032,25 @@
       <c r="F165" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="1">
-        <v>1</v>
+      <c r="G165">
+        <v>132</v>
+      </c>
+      <c r="H165">
+        <v>32</v>
+      </c>
+      <c r="I165">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="2">
+        <v>43183</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D166" s="1">
         <v>241</v>
@@ -4560,16 +6061,25 @@
       <c r="F166" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="1">
-        <v>1</v>
+      <c r="G166">
+        <v>133</v>
+      </c>
+      <c r="H166">
+        <v>33</v>
+      </c>
+      <c r="I166">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="2">
+        <v>43184</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D167" s="1">
         <v>387</v>
@@ -4580,16 +6090,25 @@
       <c r="F167" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="1">
-        <v>1</v>
+      <c r="G167">
+        <v>134</v>
+      </c>
+      <c r="H167">
+        <v>34</v>
+      </c>
+      <c r="I167">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="2">
+        <v>43185</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D168" s="1">
         <v>861</v>
@@ -4600,16 +6119,25 @@
       <c r="F168" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="1">
-        <v>1</v>
+      <c r="G168">
+        <v>135</v>
+      </c>
+      <c r="H168">
+        <v>35</v>
+      </c>
+      <c r="I168">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="2">
+        <v>43186</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D169" s="1">
         <v>252</v>
@@ -4620,16 +6148,25 @@
       <c r="F169" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="1">
-        <v>1</v>
+      <c r="G169">
+        <v>136</v>
+      </c>
+      <c r="H169">
+        <v>36</v>
+      </c>
+      <c r="I169">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="2">
+        <v>43187</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D170" s="1">
         <v>195</v>
@@ -4640,16 +6177,25 @@
       <c r="F170" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="1">
-        <v>1</v>
+      <c r="G170">
+        <v>137</v>
+      </c>
+      <c r="H170">
+        <v>37</v>
+      </c>
+      <c r="I170">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="2">
+        <v>43188</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D171" s="1">
         <v>615</v>
@@ -4660,16 +6206,25 @@
       <c r="F171" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="1">
-        <v>1</v>
+      <c r="G171">
+        <v>138</v>
+      </c>
+      <c r="H171">
+        <v>38</v>
+      </c>
+      <c r="I171">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="2">
+        <v>43189</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D172" s="1">
         <v>524</v>
@@ -4680,16 +6235,25 @@
       <c r="F172" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="1">
-        <v>1</v>
+      <c r="G172">
+        <v>139</v>
+      </c>
+      <c r="H172">
+        <v>39</v>
+      </c>
+      <c r="I172">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="2">
+        <v>43190</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D173" s="1">
         <v>277</v>
@@ -4700,16 +6264,25 @@
       <c r="F173" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1">
-        <v>1</v>
+      <c r="G173">
+        <v>140</v>
+      </c>
+      <c r="H173">
+        <v>40</v>
+      </c>
+      <c r="I173">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="2">
+        <v>43191</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D174" s="1">
         <v>125</v>
@@ -4720,16 +6293,25 @@
       <c r="F174" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="1">
-        <v>1</v>
+      <c r="G174">
+        <v>141</v>
+      </c>
+      <c r="H174">
+        <v>41</v>
+      </c>
+      <c r="I174">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="2">
+        <v>43192</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D175" s="1">
         <v>147</v>
@@ -4739,6 +6321,15 @@
       </c>
       <c r="F175" s="1">
         <v>90</v>
+      </c>
+      <c r="G175">
+        <v>142</v>
+      </c>
+      <c r="H175">
+        <v>42</v>
+      </c>
+      <c r="I175">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4757,7 +6348,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4774,7 +6365,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
